--- a/Data/Results/RuntimeResult_MultiIterationTest.xlsx
+++ b/Data/Results/RuntimeResult_MultiIterationTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Master\Hochschule Fulda\Module\Masterarbeit\Implementierungen\Data\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Studium\Hochschule Fulda\Master\Masterarbeit\Implementierungen\Data\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833831EC-3928-4127-AEB5-721F6D424B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB889B8-F770-41A5-8B07-737C09BEC39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -900,7 +900,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -911,7 +911,7 @@
   <dimension ref="A1:P3601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="U53" sqref="U53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,12 +945,6 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -988,6 +982,12 @@
       </c>
       <c r="N2" t="s">
         <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
